--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Project</t>
   </si>
@@ -368,9 +368,6 @@
     <t>1 phần SRS</t>
   </si>
   <si>
-    <t>Viết SRS cho 4 chức năng Login/Logout, Register, Multlanguage và Profile</t>
-  </si>
-  <si>
     <t>Hoàn thành</t>
   </si>
   <si>
@@ -391,6 +388,27 @@
   <si>
     <t>Report tuần 5</t>
   </si>
+  <si>
+    <t>Đọc lại và hoàn chỉnh SRS cùng nhóm</t>
+  </si>
+  <si>
+    <t>SRS final</t>
+  </si>
+  <si>
+    <t>Viết SRS cho 4 chức năng Login/Logout, Register, Multilanguage và Profile</t>
+  </si>
+  <si>
+    <t>1 phần SDD</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Viết SDD cho 4 chức năng Multilanguage và Profile</t>
+  </si>
+  <si>
+    <t>Viết SDD cho 4 chức năng Login/Logout và Register</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +417,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -576,20 +594,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3116,12 +3134,12 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
@@ -3140,7 +3158,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3150,11 +3168,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3221,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3241,17 +3259,17 @@
       </c>
     </row>
     <row r="4" spans="1:1024" s="11" customFormat="1" ht="42.75">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>41173</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -4279,17 +4297,17 @@
       <c r="AMJ4" s="10"/>
     </row>
     <row r="5" spans="1:1024" s="11" customFormat="1" ht="28.5">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>41173</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8">
         <v>0.5</v>
@@ -5317,17 +5335,17 @@
       <c r="AMJ5" s="10"/>
     </row>
     <row r="6" spans="1:1024" s="11" customFormat="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>41173</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -6355,17 +6373,17 @@
       <c r="AMJ6" s="10"/>
     </row>
     <row r="7" spans="1:1024" s="11" customFormat="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>41173</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8">
         <v>0.5</v>
@@ -7392,13 +7410,25 @@
       <c r="AMI7" s="10"/>
       <c r="AMJ7" s="10"/>
     </row>
-    <row r="8" spans="1:1024" s="11" customFormat="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+    <row r="8" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A8" s="16">
+        <v>41180</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -8418,12 +8448,22 @@
       <c r="AMI8" s="10"/>
       <c r="AMJ8" s="10"/>
     </row>
-    <row r="9" spans="1:1024" s="11" customFormat="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    <row r="9" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A9" s="16">
+        <v>41185</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -9444,12 +9484,22 @@
       <c r="AMI9" s="10"/>
       <c r="AMJ9" s="10"/>
     </row>
-    <row r="10" spans="1:1024" s="11" customFormat="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A10" s="16">
+        <v>41186</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -10471,7 +10521,7 @@
       <c r="AMJ10" s="10"/>
     </row>
     <row r="11" spans="1:1024" s="11" customFormat="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -11497,7 +11547,7 @@
       <c r="AMJ11" s="10"/>
     </row>
     <row r="12" spans="1:1024" s="11" customFormat="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -12523,7 +12573,7 @@
       <c r="AMJ12" s="10"/>
     </row>
     <row r="13" spans="1:1024" s="11" customFormat="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -13549,7 +13599,7 @@
       <c r="AMJ13" s="10"/>
     </row>
     <row r="14" spans="1:1024" s="11" customFormat="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -14575,7 +14625,7 @@
       <c r="AMJ14" s="10"/>
     </row>
     <row r="15" spans="1:1024" s="11" customFormat="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -15601,7 +15651,7 @@
       <c r="AMJ15" s="10"/>
     </row>
     <row r="16" spans="1:1024" s="11" customFormat="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -16627,7 +16677,7 @@
       <c r="AMJ16" s="10"/>
     </row>
     <row r="17" spans="1:1024" s="11" customFormat="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -17653,7 +17703,7 @@
       <c r="AMJ17" s="10"/>
     </row>
     <row r="18" spans="1:1024" s="11" customFormat="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -18679,7 +18729,7 @@
       <c r="AMJ18" s="10"/>
     </row>
     <row r="19" spans="1:1024" s="11" customFormat="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -19705,7 +19755,7 @@
       <c r="AMJ19" s="10"/>
     </row>
     <row r="20" spans="1:1024" s="11" customFormat="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -20731,7 +20781,7 @@
       <c r="AMJ20" s="10"/>
     </row>
     <row r="21" spans="1:1024" s="11" customFormat="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -21757,7 +21807,7 @@
       <c r="AMJ21" s="10"/>
     </row>
     <row r="22" spans="1:1024" s="11" customFormat="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -22783,7 +22833,7 @@
       <c r="AMJ22" s="10"/>
     </row>
     <row r="23" spans="1:1024" s="11" customFormat="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -23809,7 +23859,7 @@
       <c r="AMJ23" s="10"/>
     </row>
     <row r="24" spans="1:1024" s="11" customFormat="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -24886,8 +24936,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>

--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19440" windowHeight="9345"/>
+    <workbookView xWindow="400" yWindow="620" windowWidth="21160" windowHeight="17420"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
     <definedName name="Excel_BuiltIn__FilterDatabase">Task!$A$4:$F$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Task!$A$1:$N$32</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -264,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Project</t>
   </si>
@@ -409,6 +414,9 @@
   <si>
     <t>Viết SDD cho 4 chức năng Login/Logout và Register</t>
   </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +427,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3134,27 +3142,27 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="6.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="1024" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="1024" width="10.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -3220,7 +3228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="15">
+    <row r="3" spans="1:1024">
       <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
@@ -3258,7 +3266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="11" customFormat="1" ht="42.75">
+    <row r="4" spans="1:1024" s="11" customFormat="1" ht="39">
       <c r="A4" s="16">
         <v>41173</v>
       </c>
@@ -4296,7 +4304,7 @@
       <c r="AMI4" s="10"/>
       <c r="AMJ4" s="10"/>
     </row>
-    <row r="5" spans="1:1024" s="11" customFormat="1" ht="28.5">
+    <row r="5" spans="1:1024" s="11" customFormat="1" ht="26">
       <c r="A5" s="16">
         <v>41173</v>
       </c>
@@ -7410,7 +7418,7 @@
       <c r="AMI7" s="10"/>
       <c r="AMJ7" s="10"/>
     </row>
-    <row r="8" spans="1:1024" s="11" customFormat="1" ht="28.5">
+    <row r="8" spans="1:1024" s="11" customFormat="1">
       <c r="A8" s="16">
         <v>41180</v>
       </c>
@@ -8448,7 +8456,7 @@
       <c r="AMI8" s="10"/>
       <c r="AMJ8" s="10"/>
     </row>
-    <row r="9" spans="1:1024" s="11" customFormat="1" ht="28.5">
+    <row r="9" spans="1:1024" s="11" customFormat="1" ht="26">
       <c r="A9" s="16">
         <v>41185</v>
       </c>
@@ -9484,7 +9492,7 @@
       <c r="AMI9" s="10"/>
       <c r="AMJ9" s="10"/>
     </row>
-    <row r="10" spans="1:1024" s="11" customFormat="1" ht="28.5">
+    <row r="10" spans="1:1024" s="11" customFormat="1" ht="26">
       <c r="A10" s="16">
         <v>41186</v>
       </c>
@@ -10525,7 +10533,9 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -24889,12 +24899,16 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.59410000000000007" bottom="0.49410000000000004" header="0.2" footer="0.1"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24904,24 +24918,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="6.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="1024" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="1024" width="10.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -24985,7 +24999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15">
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -25398,12 +25412,16 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.30000000000000004" right="0.2" top="0.59410000000000007" bottom="0.49410000000000004" header="0.2" footer="0.1"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="620" windowWidth="21160" windowHeight="17420"/>
+    <workbookView xWindow="405" yWindow="615" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -409,13 +409,13 @@
     <t>Chưa hoàn thành</t>
   </si>
   <si>
-    <t>Viết SDD cho 4 chức năng Multilanguage và Profile</t>
+    <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>Viết SDD cho 4 chức năng Login/Logout và Register</t>
+    <t>Viết SDD cho 2 chức năng Login/Logout và Register</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
+    <t>Viết SDD cho 2 chức năng Multilanguage và Profile</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3142,27 +3142,27 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="6.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
-    <col min="17" max="1024" width="10.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
+    <col min="17" max="1024" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -3228,7 +3228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" ht="15">
       <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="11" customFormat="1" ht="39">
+    <row r="4" spans="1:1024" s="11" customFormat="1" ht="42.75">
       <c r="A4" s="16">
         <v>41173</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="AMI4" s="10"/>
       <c r="AMJ4" s="10"/>
     </row>
-    <row r="5" spans="1:1024" s="11" customFormat="1" ht="26">
+    <row r="5" spans="1:1024" s="11" customFormat="1" ht="28.5">
       <c r="A5" s="16">
         <v>41173</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="AMI7" s="10"/>
       <c r="AMJ7" s="10"/>
     </row>
-    <row r="8" spans="1:1024" s="11" customFormat="1">
+    <row r="8" spans="1:1024" s="11" customFormat="1" ht="28.5">
       <c r="A8" s="16">
         <v>41180</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="AMI8" s="10"/>
       <c r="AMJ8" s="10"/>
     </row>
-    <row r="9" spans="1:1024" s="11" customFormat="1" ht="26">
+    <row r="9" spans="1:1024" s="11" customFormat="1" ht="28.5">
       <c r="A9" s="16">
         <v>41185</v>
       </c>
@@ -9492,12 +9492,12 @@
       <c r="AMI9" s="10"/>
       <c r="AMJ9" s="10"/>
     </row>
-    <row r="10" spans="1:1024" s="11" customFormat="1" ht="26">
+    <row r="10" spans="1:1024" s="11" customFormat="1" ht="28.5">
       <c r="A10" s="16">
         <v>41186</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -10534,7 +10534,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -24918,24 +24918,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="6.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
-    <col min="17" max="1024" width="10.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
+    <col min="17" max="1024" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -24999,7 +24999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>

--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="615" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="405" yWindow="615" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Project</t>
   </si>
@@ -406,16 +406,19 @@
     <t>1 phần SDD</t>
   </si>
   <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
     <t>Viết SDD cho 2 chức năng Login/Logout và Register</t>
   </si>
   <si>
     <t>Viết SDD cho 2 chức năng Multilanguage và Profile</t>
+  </si>
+  <si>
+    <t>25/10/12</t>
+  </si>
+  <si>
+    <t>Hoàn thành SDD</t>
+  </si>
+  <si>
+    <t>SDD final</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3145,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8461,18 +8464,20 @@
         <v>41185</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -9497,18 +9502,20 @@
         <v>41186</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -10529,12 +10536,18 @@
       <c r="AMJ10" s="10"/>
     </row>
     <row r="11" spans="1:1024" s="11" customFormat="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
+      <c r="E11" s="8">
+        <v>3</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>

--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Project</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>SDD final</t>
+  </si>
+  <si>
+    <t>Xong</t>
+  </si>
+  <si>
+    <t>30/10/12</t>
+  </si>
+  <si>
+    <t>hiện thực</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3154,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -10545,11 +10554,15 @@
       <c r="C11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -11570,11 +11583,17 @@
       <c r="AMJ11" s="10"/>
     </row>
     <row r="12" spans="1:1024" s="11" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>8</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>

--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="615" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="405" yWindow="675" windowWidth="19440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Project</t>
   </si>
@@ -421,13 +421,13 @@
     <t>SDD final</t>
   </si>
   <si>
-    <t>Xong</t>
-  </si>
-  <si>
     <t>30/10/12</t>
   </si>
   <si>
-    <t>hiện thực</t>
+    <t>Hiện thực login + register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3154,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -10555,7 +10555,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8">
         <v>3</v>
@@ -11584,13 +11584,15 @@
     </row>
     <row r="12" spans="1:1024" s="11" customFormat="1">
       <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
       <c r="E12" s="8">
         <v>8</v>
       </c>
@@ -12616,7 +12618,9 @@
     </row>
     <row r="13" spans="1:1024" s="11" customFormat="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>

--- a/BaoCaoCaNhan/Weekly_Report_Son.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Son.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="675" windowWidth="19440" windowHeight="11700"/>
+    <workbookView xWindow="405" yWindow="735" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase">Task!$A$4:$F$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Task!$A$1:$N$32</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Project</t>
   </si>
@@ -427,7 +427,37 @@
     <t>Hiện thực login + register</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>28/11/12</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa login + register</t>
+  </si>
+  <si>
+    <t>Việt hóa cho website (dịch các thuật ngữ sang tiếng Việt)</t>
+  </si>
+  <si>
+    <t>Trang chủ + register + login có hỗ trợ tiếng Việt</t>
+  </si>
+  <si>
+    <t>Việt hóa thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi trang login và register có hỗ trợ tiếng Việt</t>
+  </si>
+  <si>
+    <t>Bổ sung đa ngôn ngữ cho trang admin</t>
+  </si>
+  <si>
+    <t>Bổ sung trường cho user + thêm đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Bổ sung báo cáo</t>
+  </si>
+  <si>
+    <t>Giới thiệu về Ruby + RoR</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh báo cáo</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3184,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -12617,14 +12647,22 @@
       <c r="AMJ12" s="10"/>
     </row>
     <row r="13" spans="1:1024" s="11" customFormat="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -13644,13 +13682,23 @@
       <c r="AMI13" s="10"/>
       <c r="AMJ13" s="10"/>
     </row>
-    <row r="14" spans="1:1024" s="11" customFormat="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A14" s="16">
+        <v>40920</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -14670,13 +14718,25 @@
       <c r="AMI14" s="10"/>
       <c r="AMJ14" s="10"/>
     </row>
-    <row r="15" spans="1:1024" s="11" customFormat="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+    <row r="15" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A15" s="16">
+        <v>40951</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -15696,13 +15756,25 @@
       <c r="AMI15" s="10"/>
       <c r="AMJ15" s="10"/>
     </row>
-    <row r="16" spans="1:1024" s="11" customFormat="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+    <row r="16" spans="1:1024" s="11" customFormat="1" ht="42.75">
+      <c r="A16" s="16">
+        <v>40980</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -16722,13 +16794,25 @@
       <c r="AMI16" s="10"/>
       <c r="AMJ16" s="10"/>
     </row>
-    <row r="17" spans="1:1024" s="11" customFormat="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+    <row r="17" spans="1:1024" s="11" customFormat="1" ht="28.5">
+      <c r="A17" s="16">
+        <v>40980</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -17749,12 +17833,22 @@
       <c r="AMJ17" s="10"/>
     </row>
     <row r="18" spans="1:1024" s="11" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="16">
+        <v>40980</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -18775,12 +18869,22 @@
       <c r="AMJ18" s="10"/>
     </row>
     <row r="19" spans="1:1024" s="11" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="16">
+        <v>41011</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -19801,11 +19905,19 @@
       <c r="AMJ19" s="10"/>
     </row>
     <row r="20" spans="1:1024" s="11" customFormat="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="16">
+        <v>41041</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
